--- a/scripts_on_ubuntu/L2_project/OP/eth1000_OP_操作后.xlsx
+++ b/scripts_on_ubuntu/L2_project/OP/eth1000_OP_操作后.xlsx
@@ -891,7 +891,7 @@
       <c r="G2" s="25" t="n"/>
       <c r="H2" s="44" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I2" s="42" t="n"/>
@@ -996,7 +996,7 @@
       <c r="G3" s="25" t="n"/>
       <c r="H3" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I3" s="42" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="G6" s="25" t="n"/>
       <c r="H6" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I6" s="25" t="n"/>
@@ -1451,7 +1451,7 @@
       <c r="G8" s="25" t="n"/>
       <c r="H8" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I8" s="42" t="n"/>
@@ -1548,7 +1548,7 @@
       <c r="G9" s="25" t="n"/>
       <c r="H9" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I9" s="42" t="n"/>
@@ -1847,7 +1847,7 @@
       <c r="G12" s="25" t="n"/>
       <c r="H12" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I12" s="42" t="n"/>
@@ -2037,7 +2037,7 @@
       <c r="G14" s="25" t="n"/>
       <c r="H14" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I14" s="42" t="n"/>
@@ -2123,7 +2123,7 @@
       <c r="G15" s="25" t="n"/>
       <c r="H15" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I15" s="42" t="n"/>
@@ -2412,7 +2412,7 @@
       <c r="G18" s="25" t="n"/>
       <c r="H18" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I18" s="42" t="n"/>
@@ -2590,7 +2590,7 @@
       <c r="G20" s="25" t="n"/>
       <c r="H20" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I20" s="42" t="n"/>
@@ -3040,7 +3040,7 @@
       <c r="G25" s="25" t="n"/>
       <c r="H25" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I25" s="42" t="n"/>
@@ -3689,7 +3689,7 @@
       <c r="G32" s="25" t="n"/>
       <c r="H32" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I32" s="42" t="n"/>
@@ -4088,7 +4088,7 @@
       <c r="G36" s="25" t="n"/>
       <c r="H36" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I36" s="42" t="n"/>
@@ -4345,7 +4345,7 @@
       <c r="G39" s="25" t="n"/>
       <c r="H39" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I39" s="42" t="n"/>
@@ -4420,7 +4420,7 @@
       <c r="G40" s="25" t="n"/>
       <c r="H40" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I40" s="42" t="n"/>
@@ -4520,7 +4520,7 @@
       <c r="G41" s="25" t="n"/>
       <c r="H41" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I41" s="42" t="n"/>
@@ -4872,7 +4872,7 @@
       <c r="G45" s="25" t="n"/>
       <c r="H45" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I45" s="42" t="n"/>
@@ -17341,7 +17341,7 @@
       <c r="G180" s="25" t="n"/>
       <c r="H180" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I180" s="42" t="n"/>
@@ -17429,7 +17429,7 @@
       <c r="G181" s="25" t="n"/>
       <c r="H181" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I181" s="42" t="n"/>

--- a/scripts_on_ubuntu/L2_project/OP/eth1000_OP_操作后.xlsx
+++ b/scripts_on_ubuntu/L2_project/OP/eth1000_OP_操作后.xlsx
@@ -4258,7 +4258,7 @@
       <c r="G38" s="25" t="n"/>
       <c r="H38" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I38" s="42" t="n"/>
@@ -7601,7 +7601,7 @@
       <c r="G74" s="25" t="n"/>
       <c r="H74" s="43" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I74" s="42" t="n"/>
@@ -11857,7 +11857,7 @@
       <c r="G121" s="25" t="n"/>
       <c r="H121" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I121" s="42" t="n"/>
@@ -11946,7 +11946,7 @@
       <c r="G122" s="25" t="n"/>
       <c r="H122" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I122" s="42" t="n"/>
@@ -12119,7 +12119,7 @@
       <c r="G124" s="25" t="n"/>
       <c r="H124" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I124" s="42" t="n"/>
@@ -13638,7 +13638,7 @@
       <c r="G139" s="25" t="n"/>
       <c r="H139" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I139" s="42" t="n"/>
@@ -13732,7 +13732,7 @@
       <c r="G140" s="25" t="n"/>
       <c r="H140" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I140" s="42" t="n"/>
@@ -13820,7 +13820,7 @@
       <c r="G141" s="25" t="n"/>
       <c r="H141" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I141" s="42" t="n"/>
@@ -14011,7 +14011,7 @@
       <c r="G143" s="25" t="n"/>
       <c r="H143" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I143" s="42" t="n"/>
@@ -14104,7 +14104,7 @@
       <c r="G144" s="25" t="n"/>
       <c r="H144" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I144" s="42" t="n"/>
@@ -14277,7 +14277,7 @@
       <c r="G146" s="25" t="n"/>
       <c r="H146" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I146" s="42" t="n"/>
@@ -14540,7 +14540,7 @@
       <c r="G149" s="25" t="n"/>
       <c r="H149" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I149" s="42" t="n"/>
@@ -14712,7 +14712,7 @@
       <c r="G151" s="25" t="n"/>
       <c r="H151" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I151" s="42" t="n"/>
@@ -15740,7 +15740,7 @@
       <c r="G162" s="25" t="n"/>
       <c r="H162" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I162" s="42" t="n"/>
@@ -15820,7 +15820,7 @@
       <c r="G163" s="25" t="n"/>
       <c r="H163" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I163" s="42" t="n"/>
@@ -15916,7 +15916,7 @@
       <c r="G164" s="25" t="n"/>
       <c r="H164" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I164" s="42" t="n"/>
@@ -16262,7 +16262,7 @@
       <c r="G168" s="25" t="n"/>
       <c r="H168" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I168" s="42" t="n"/>
@@ -16731,7 +16731,7 @@
       <c r="G173" s="25" t="n"/>
       <c r="H173" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I173" s="42" t="n"/>
@@ -17983,7 +17983,7 @@
       <c r="G187" s="25" t="n"/>
       <c r="H187" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I187" s="48" t="n"/>
@@ -18144,7 +18144,7 @@
       <c r="G189" s="25" t="n"/>
       <c r="H189" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I189" s="42" t="n"/>
@@ -18231,7 +18231,7 @@
       <c r="G190" s="25" t="n"/>
       <c r="H190" s="45" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I190" s="42" t="n"/>

--- a/scripts_on_ubuntu/L2_project/OP/eth1000_OP_操作后.xlsx
+++ b/scripts_on_ubuntu/L2_project/OP/eth1000_OP_操作后.xlsx
@@ -4258,7 +4258,7 @@
       <c r="G38" s="25" t="n"/>
       <c r="H38" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I38" s="42" t="n"/>
@@ -14540,7 +14540,7 @@
       <c r="G149" s="25" t="n"/>
       <c r="H149" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I149" s="42" t="n"/>

--- a/scripts_on_ubuntu/L2_project/OP/eth1000_OP_操作后.xlsx
+++ b/scripts_on_ubuntu/L2_project/OP/eth1000_OP_操作后.xlsx
@@ -11857,7 +11857,7 @@
       <c r="G121" s="25" t="n"/>
       <c r="H121" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I121" s="42" t="n"/>
@@ -11946,7 +11946,7 @@
       <c r="G122" s="25" t="n"/>
       <c r="H122" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I122" s="42" t="n"/>
@@ -12119,7 +12119,7 @@
       <c r="G124" s="25" t="n"/>
       <c r="H124" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I124" s="42" t="n"/>
@@ -13638,7 +13638,7 @@
       <c r="G139" s="25" t="n"/>
       <c r="H139" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I139" s="42" t="n"/>
@@ -13732,7 +13732,7 @@
       <c r="G140" s="25" t="n"/>
       <c r="H140" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I140" s="42" t="n"/>
@@ -13820,7 +13820,7 @@
       <c r="G141" s="25" t="n"/>
       <c r="H141" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I141" s="42" t="n"/>
@@ -15740,7 +15740,7 @@
       <c r="G162" s="25" t="n"/>
       <c r="H162" s="45" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I162" s="42" t="n"/>
